--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,13 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Tnf</t>
   </si>
   <si>
     <t>Tnfrsf1b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.2355522356001</v>
+        <v>459.5553626666667</v>
       </c>
       <c r="H2">
-        <v>37.2355522356001</v>
+        <v>1378.666088</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.997342491800172</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.997342491800172</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.4880053015694</v>
+        <v>87.481206</v>
       </c>
       <c r="N2">
-        <v>33.4880053015694</v>
+        <v>262.443618</v>
       </c>
       <c r="O2">
-        <v>0.7545219574765698</v>
+        <v>0.8890954013316028</v>
       </c>
       <c r="P2">
-        <v>0.7545219574765698</v>
+        <v>0.8890954013316029</v>
       </c>
       <c r="Q2">
-        <v>1246.944370672641</v>
+        <v>40202.45734984738</v>
       </c>
       <c r="R2">
-        <v>1246.944370672641</v>
+        <v>361822.1161486264</v>
       </c>
       <c r="S2">
-        <v>0.7545219574765698</v>
+        <v>0.8867326230121347</v>
       </c>
       <c r="T2">
-        <v>0.7545219574765698</v>
+        <v>0.8867326230121348</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.2355522356001</v>
+        <v>459.5553626666667</v>
       </c>
       <c r="H3">
-        <v>37.2355522356001</v>
+        <v>1378.666088</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.997342491800172</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.997342491800172</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.3564440400131</v>
+        <v>10.36557633333333</v>
       </c>
       <c r="N3">
-        <v>10.3564440400131</v>
+        <v>31.096729</v>
       </c>
       <c r="O3">
-        <v>0.2333421880222</v>
+        <v>0.1053481847303107</v>
       </c>
       <c r="P3">
-        <v>0.2333421880222</v>
+        <v>0.1053481847303107</v>
       </c>
       <c r="Q3">
-        <v>385.6279130269772</v>
+        <v>4763.556191114017</v>
       </c>
       <c r="R3">
-        <v>385.6279130269772</v>
+        <v>42872.00572002615</v>
       </c>
       <c r="S3">
-        <v>0.2333421880222</v>
+        <v>0.1050682210655529</v>
       </c>
       <c r="T3">
-        <v>0.2333421880222</v>
+        <v>0.1050682210655529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,247 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.2355522356001</v>
+        <v>459.5553626666667</v>
       </c>
       <c r="H4">
-        <v>37.2355522356001</v>
+        <v>1378.666088</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.997342491800172</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.997342491800172</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5386265513537331</v>
+        <v>0.546715</v>
       </c>
       <c r="N4">
-        <v>0.5386265513537331</v>
+        <v>1.640145</v>
       </c>
       <c r="O4">
-        <v>0.01213585450123023</v>
+        <v>0.005556413938086396</v>
       </c>
       <c r="P4">
-        <v>0.01213585450123023</v>
+        <v>0.005556413938086396</v>
       </c>
       <c r="Q4">
-        <v>20.05605708841307</v>
+        <v>251.2458101003066</v>
       </c>
       <c r="R4">
-        <v>20.05605708841307</v>
+        <v>2261.21229090276</v>
       </c>
       <c r="S4">
-        <v>0.01213585450123023</v>
+        <v>0.005541647722484292</v>
       </c>
       <c r="T4">
-        <v>0.01213585450123023</v>
+        <v>0.005541647722484292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>1.224526333333333</v>
+      </c>
+      <c r="H5">
+        <v>3.673579</v>
+      </c>
+      <c r="I5">
+        <v>0.002657508199827995</v>
+      </c>
+      <c r="J5">
+        <v>0.002657508199827995</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>87.481206</v>
+      </c>
+      <c r="N5">
+        <v>262.443618</v>
+      </c>
+      <c r="O5">
+        <v>0.8890954013316028</v>
+      </c>
+      <c r="P5">
+        <v>0.8890954013316029</v>
+      </c>
+      <c r="Q5">
+        <v>107.123040418758</v>
+      </c>
+      <c r="R5">
+        <v>964.1073637688221</v>
+      </c>
+      <c r="S5">
+        <v>0.002362778319468097</v>
+      </c>
+      <c r="T5">
+        <v>0.002362778319468097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>1.224526333333333</v>
+      </c>
+      <c r="H6">
+        <v>3.673579</v>
+      </c>
+      <c r="I6">
+        <v>0.002657508199827995</v>
+      </c>
+      <c r="J6">
+        <v>0.002657508199827995</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>10.36557633333333</v>
+      </c>
+      <c r="N6">
+        <v>31.096729</v>
+      </c>
+      <c r="O6">
+        <v>0.1053481847303107</v>
+      </c>
+      <c r="P6">
+        <v>0.1053481847303107</v>
+      </c>
+      <c r="Q6">
+        <v>12.69292118034345</v>
+      </c>
+      <c r="R6">
+        <v>114.236290623091</v>
+      </c>
+      <c r="S6">
+        <v>0.000279963664757795</v>
+      </c>
+      <c r="T6">
+        <v>0.0002799636647577951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>1.224526333333333</v>
+      </c>
+      <c r="H7">
+        <v>3.673579</v>
+      </c>
+      <c r="I7">
+        <v>0.002657508199827995</v>
+      </c>
+      <c r="J7">
+        <v>0.002657508199827995</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.546715</v>
+      </c>
+      <c r="N7">
+        <v>1.640145</v>
+      </c>
+      <c r="O7">
+        <v>0.005556413938086396</v>
+      </c>
+      <c r="P7">
+        <v>0.005556413938086396</v>
+      </c>
+      <c r="Q7">
+        <v>0.6694669143283333</v>
+      </c>
+      <c r="R7">
+        <v>6.025202228955</v>
+      </c>
+      <c r="S7">
+        <v>1.476621560210316E-05</v>
+      </c>
+      <c r="T7">
+        <v>1.476621560210316E-05</v>
       </c>
     </row>
   </sheetData>
